--- a/medicine/Psychotrope/Café_des_2_Moulins/Café_des_2_Moulins.xlsx
+++ b/medicine/Psychotrope/Café_des_2_Moulins/Café_des_2_Moulins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_des_2_Moulins</t>
+          <t>Café_des_2_Moulins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café des 2 Moulins est un café-brasserie de Montmartre, dans le 18e arrondissement de Paris, rendu célèbre par le film Le Fabuleux Destin d'Amélie Poulain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_des_2_Moulins</t>
+          <t>Café_des_2_Moulins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café des 2 Moulins est sis au 15 rue Lepic, à l'angle de la rue Cauchois, dans le 18e arrondissement de Paris. Situé dans le quartier des Grandes-Carrières, il est au pied de la butte Montmartre.
 Tout près se trouve un autre lieu du Fabuleux Destin d'Amélie Poulain : l'épicerie de Collignon, située rue des Trois-Frères.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_des_2_Moulins</t>
+          <t>Café_des_2_Moulins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du café des 2 Moulins fait référence au Moulin-Rouge et à celui de la Galette, tous deux proches[1].
-Le café est rendu célèbre en 2001 par le film Le Fabuleux Destin d'Amélie Poulain, réalisé par Jean-Pierre Jeunet. Il lui a en effet servi de décor, et le personnage principal y travaille comme serveuse. À la suite du succès du film, le café est devenu un lieu touristique, et une affiche du film a été installée à l'intérieur du café[2]. 
-Le comptoir à tabac, tenu dans le film par Georgette (Isabelle Nanty), a fermé en 2002 à la suite du changement de propriétaire[3],[4].
-L'établissement a été immatriculé au Registre du commerce et des sociétés en 1964[5]. Selon Marc Fougedoire, propriétaire de l'établissement depuis 2003[6], il a ouvert ses portes au début du XXe siècle mais n'a pris son nom actuel que dans les années 1950[7]. Il avait déjà servi de lieu de tournage à deux autres films avant Amélie Poulain[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du café des 2 Moulins fait référence au Moulin-Rouge et à celui de la Galette, tous deux proches.
+Le café est rendu célèbre en 2001 par le film Le Fabuleux Destin d'Amélie Poulain, réalisé par Jean-Pierre Jeunet. Il lui a en effet servi de décor, et le personnage principal y travaille comme serveuse. À la suite du succès du film, le café est devenu un lieu touristique, et une affiche du film a été installée à l'intérieur du café. 
+Le comptoir à tabac, tenu dans le film par Georgette (Isabelle Nanty), a fermé en 2002 à la suite du changement de propriétaire,.
+L'établissement a été immatriculé au Registre du commerce et des sociétés en 1964. Selon Marc Fougedoire, propriétaire de l'établissement depuis 2003, il a ouvert ses portes au début du XXe siècle mais n'a pris son nom actuel que dans les années 1950. Il avait déjà servi de lieu de tournage à deux autres films avant Amélie Poulain.
 	Intérieur du café
 			Comptoir.
 			Affiche du film.
